--- a/data/xlsx/01212019.xlsx
+++ b/data/xlsx/01212019.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28502"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allison/Desktop/Webdev Meetings/Data Vis Datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/susa-data-viz/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894979CA-8211-6B45-B15B-7EC7D0DE01BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="460" windowWidth="15340" windowHeight="15940"/>
+    <workbookView xWindow="8100" yWindow="460" windowWidth="15340" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -371,11 +372,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -444,7 +445,7 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -460,6 +461,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -751,12 +755,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="3" max="3" width="21.83203125" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" customWidth="1"/>
@@ -764,7 +770,7 @@
     <col min="8" max="8" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>87</v>
       </c>
@@ -790,9 +796,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="6">
-        <v>43477</v>
+        <v>43486</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -816,9 +822,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="6">
-        <v>43477</v>
+        <v>43486</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -842,9 +848,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="6">
-        <v>43477</v>
+        <v>43486</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -868,9 +874,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="6">
-        <v>43477</v>
+        <v>43486</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
@@ -894,9 +900,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="6">
-        <v>43477</v>
+        <v>43486</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>16</v>
@@ -920,9 +926,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="6">
-        <v>43477</v>
+        <v>43486</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>20</v>
@@ -946,9 +952,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="6">
-        <v>43477</v>
+        <v>43486</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -972,9 +978,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="6">
-        <v>43477</v>
+        <v>43486</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>26</v>
@@ -998,9 +1004,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="6">
-        <v>43477</v>
+        <v>43486</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>29</v>
@@ -1024,9 +1030,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="6">
-        <v>43477</v>
+        <v>43486</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>32</v>
@@ -1050,9 +1056,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="6">
-        <v>43477</v>
+        <v>43486</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>35</v>
@@ -1076,9 +1082,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="6">
-        <v>43477</v>
+        <v>43486</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>38</v>
@@ -1102,9 +1108,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="6">
-        <v>43477</v>
+        <v>43486</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>41</v>
@@ -1128,9 +1134,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="6">
-        <v>43477</v>
+        <v>43486</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>45</v>
@@ -1154,9 +1160,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="6">
-        <v>43477</v>
+        <v>43486</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>47</v>
@@ -1180,9 +1186,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="6">
-        <v>43477</v>
+        <v>43486</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>50</v>
@@ -1206,9 +1212,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="6">
-        <v>43477</v>
+        <v>43486</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>54</v>
@@ -1232,9 +1238,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="6">
-        <v>43477</v>
+        <v>43486</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>57</v>
@@ -1258,9 +1264,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8">
       <c r="A20" s="6">
-        <v>43477</v>
+        <v>43486</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>60</v>
@@ -1284,9 +1290,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8">
       <c r="A21" s="6">
-        <v>43477</v>
+        <v>43486</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>63</v>
@@ -1310,9 +1316,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8">
       <c r="A22" s="6">
-        <v>43477</v>
+        <v>43486</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>67</v>
@@ -1336,9 +1342,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8">
       <c r="A23" s="6">
-        <v>43477</v>
+        <v>43486</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>71</v>
@@ -1362,9 +1368,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8">
       <c r="A24" s="6">
-        <v>43477</v>
+        <v>43486</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>74</v>
@@ -1388,9 +1394,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8">
       <c r="A25" s="6">
-        <v>43477</v>
+        <v>43486</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>77</v>
@@ -1414,9 +1420,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8">
       <c r="A26" s="6">
-        <v>43477</v>
+        <v>43486</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>79</v>
@@ -1440,9 +1446,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8">
       <c r="A27" s="6">
-        <v>43477</v>
+        <v>43486</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>81</v>
@@ -1466,9 +1472,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8">
       <c r="A28" s="6">
-        <v>43477</v>
+        <v>43486</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>84</v>
@@ -1492,7 +1498,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8">
       <c r="A30" s="3"/>
     </row>
   </sheetData>
